--- a/TC_CreateNewContact/Main.rvl.xlsx
+++ b/TC_CreateNewContact/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="132">
   <si>
     <t>Flow</t>
   </si>
@@ -385,12 +385,18 @@
     <t>SaveEdit</t>
   </si>
   <si>
-    <t>All_Contacts</t>
-  </si>
-  <si>
     <t>LIGHTNING-ICON</t>
   </si>
   <si>
+    <t>CloseItem</t>
+  </si>
+  <si>
+    <t>App_Launcher1</t>
+  </si>
+  <si>
+    <t>View_All1</t>
+  </si>
+  <si>
     <t>SearchTable</t>
   </si>
   <si>
@@ -403,13 +409,7 @@
     <t>null</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>Close1</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="708">
+  <borders count="710">
     <border>
       <left/>
       <right/>
@@ -1145,11 +1145,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="708">
+  <cellXfs count="710">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -1858,6 +1860,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="705" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="706" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="707" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="708" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="709" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1944,7 +1948,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C4" s="204"/>
       <c r="D4" s="204"/>
@@ -1957,175 +1961,159 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="202" t="s">
+      <c r="A5" s="699"/>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="202" t="s">
         <v>83</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>84</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="203"/>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="212" t="s">
+      <c r="A7" s="203"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="212" t="s">
         <v>68</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>93</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>86</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
         <v>94</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="220"/>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>96</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="220"/>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="218" t="s">
+    <row r="10">
+      <c r="A10" s="218" t="s">
         <v>83</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>84</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="219"/>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="219"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C12" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D12" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="684"/>
+      <c r="E12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="24"/>
     </row>
     <row r="13">
-      <c r="A13" s="685" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="692"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="688" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" t="s">
-        <v>7</v>
-      </c>
+      <c r="E14" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="56"/>
     </row>
     <row r="15">
-      <c r="A15" s="689" t="s">
+      <c r="A15" s="684" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -2141,49 +2129,81 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="686"/>
+      <c r="A16" s="685" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42" t="s">
+      <c r="A17" s="665"/>
+      <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" t="s">
         <v>120</v>
       </c>
-      <c r="H17" s="48"/>
     </row>
     <row r="18">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
+      <c r="A18" s="187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="665" t="s">
+      <c r="A19" s="686" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -2199,7 +2219,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="691" t="s">
+      <c r="A20" s="687" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
@@ -2209,27 +2229,27 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="692" t="s">
+      <c r="A21" s="688" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -2238,44 +2258,44 @@
         <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="693" t="s">
+      <c r="A22" s="689" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="187" t="s">
+      <c r="A23" s="690" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -2291,84 +2311,71 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="697" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" s="691"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="65"/>
+      <c r="B25" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="72"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="113"/>
+      <c r="B26" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="115" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="699"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="65"/>
-      <c r="B26" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="H26" s="72"/>
+      <c r="E26" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="118" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="120"/>
     </row>
     <row r="27">
-      <c r="A27" s="113"/>
-      <c r="B27" s="114" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="115" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="116" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="117" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="118" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="119" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="120"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="128"/>
     </row>
     <row r="28">
-      <c r="A28" s="121"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="128"/>
+      <c r="A28" s="129"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="136"/>
     </row>
     <row r="29">
       <c r="A29" s="137"/>
@@ -2406,7 +2413,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H55"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -2456,162 +2463,112 @@
       <c r="H2" s="313"/>
     </row>
     <row r="3">
-      <c r="A3" s="702"/>
+      <c r="A3" s="708" t="s">
+        <v>68</v>
+      </c>
       <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="707"/>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="705" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="704"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="703" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="702"/>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="701" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="700"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="330" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C11" s="332" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="333" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="701"/>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="700"/>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="330"/>
-      <c r="B6" s="331"/>
-      <c r="C6" s="332"/>
-      <c r="D6" s="333"/>
-      <c r="E6" s="334"/>
-      <c r="F6" s="335"/>
-      <c r="G6" s="336"/>
-      <c r="H6" s="337"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="338"/>
-      <c r="B7" s="339" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="340" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="341" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="342" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="343" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="344" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="345"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="346"/>
-      <c r="B8" s="347"/>
-      <c r="C8" s="348"/>
-      <c r="D8" s="349"/>
-      <c r="E8" s="350"/>
-      <c r="F8" s="351"/>
-      <c r="G8" s="352"/>
-      <c r="H8" s="353"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="354" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="355" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="356" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="357" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="358" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="359" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="360" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="361"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="703" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="704" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
+      <c r="E11" s="334" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="335" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="336" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="337"/>
     </row>
     <row r="12">
-      <c r="A12" s="705" t="s">
+      <c r="A12" s="693" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -2627,14 +2584,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="706" t="s">
+      <c r="A13" s="694" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -2650,354 +2607,526 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="362"/>
-      <c r="B14" s="363"/>
-      <c r="C14" s="364"/>
-      <c r="D14" s="365"/>
-      <c r="E14" s="366"/>
-      <c r="F14" s="367"/>
-      <c r="G14" s="368"/>
-      <c r="H14" s="369"/>
+      <c r="A14" s="338"/>
+      <c r="B14" s="339"/>
+      <c r="C14" s="340"/>
+      <c r="D14" s="341"/>
+      <c r="E14" s="342"/>
+      <c r="F14" s="343"/>
+      <c r="G14" s="344"/>
+      <c r="H14" s="345"/>
     </row>
     <row r="15">
-      <c r="A15" s="370"/>
-      <c r="B15" s="371"/>
-      <c r="C15" s="372"/>
-      <c r="D15" s="373"/>
-      <c r="E15" s="374"/>
-      <c r="F15" s="375"/>
-      <c r="G15" s="376"/>
-      <c r="H15" s="377"/>
+      <c r="A15" s="346"/>
+      <c r="B15" s="347" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="348" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="349" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="350" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="351" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="352" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="353"/>
     </row>
     <row r="16">
-      <c r="A16" s="378"/>
-      <c r="B16" s="379"/>
-      <c r="C16" s="380"/>
-      <c r="D16" s="381"/>
-      <c r="E16" s="382"/>
-      <c r="F16" s="383"/>
-      <c r="G16" s="384"/>
-      <c r="H16" s="385"/>
+      <c r="A16" s="354"/>
+      <c r="B16" s="355" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="356" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="357" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="358" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="359" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="360" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="361"/>
     </row>
     <row r="17">
-      <c r="A17" s="386"/>
-      <c r="B17" s="387"/>
-      <c r="C17" s="388"/>
-      <c r="D17" s="389"/>
-      <c r="E17" s="390"/>
-      <c r="F17" s="391"/>
-      <c r="G17" s="392"/>
-      <c r="H17" s="393"/>
+      <c r="A17" s="362"/>
+      <c r="B17" s="363" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="364" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="365" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="366" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="367" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="368" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="369"/>
     </row>
     <row r="18">
-      <c r="A18" s="394"/>
-      <c r="B18" s="395"/>
-      <c r="C18" s="396"/>
-      <c r="D18" s="397"/>
-      <c r="E18" s="398"/>
-      <c r="F18" s="399"/>
-      <c r="G18" s="400"/>
-      <c r="H18" s="401"/>
+      <c r="A18" s="370" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="371" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="372" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="373" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="374" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="375" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="376" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="377"/>
     </row>
     <row r="19">
-      <c r="A19" s="402"/>
-      <c r="B19" s="403"/>
-      <c r="C19" s="404"/>
-      <c r="D19" s="405"/>
-      <c r="E19" s="406"/>
-      <c r="F19" s="407"/>
-      <c r="G19" s="408"/>
-      <c r="H19" s="409"/>
+      <c r="A19" s="695" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="410"/>
-      <c r="B20" s="411"/>
-      <c r="C20" s="412"/>
-      <c r="D20" s="413"/>
-      <c r="E20" s="414"/>
-      <c r="F20" s="415"/>
-      <c r="G20" s="416"/>
-      <c r="H20" s="417"/>
+      <c r="A20" s="696" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="418"/>
-      <c r="B21" s="419"/>
-      <c r="C21" s="420"/>
-      <c r="D21" s="421"/>
-      <c r="E21" s="422"/>
-      <c r="F21" s="423"/>
-      <c r="G21" s="424"/>
-      <c r="H21" s="425"/>
+      <c r="A21" s="697" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="426"/>
-      <c r="B22" s="427"/>
-      <c r="C22" s="428"/>
-      <c r="D22" s="429"/>
-      <c r="E22" s="430"/>
-      <c r="F22" s="431"/>
-      <c r="G22" s="432"/>
-      <c r="H22" s="433"/>
+      <c r="A22" s="698" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="434"/>
-      <c r="B23" s="435"/>
-      <c r="C23" s="436"/>
-      <c r="D23" s="437"/>
-      <c r="E23" s="438"/>
-      <c r="F23" s="439"/>
-      <c r="G23" s="440"/>
-      <c r="H23" s="441"/>
+      <c r="A23" s="378"/>
+      <c r="B23" s="379"/>
+      <c r="C23" s="380"/>
+      <c r="D23" s="381"/>
+      <c r="E23" s="382"/>
+      <c r="F23" s="383"/>
+      <c r="G23" s="384"/>
+      <c r="H23" s="385"/>
     </row>
     <row r="24">
-      <c r="A24" s="442"/>
-      <c r="B24" s="443"/>
-      <c r="C24" s="444"/>
-      <c r="D24" s="445"/>
-      <c r="E24" s="446"/>
-      <c r="F24" s="447"/>
-      <c r="G24" s="448"/>
-      <c r="H24" s="449"/>
+      <c r="A24" s="386"/>
+      <c r="B24" s="387"/>
+      <c r="C24" s="388"/>
+      <c r="D24" s="389"/>
+      <c r="E24" s="390"/>
+      <c r="F24" s="391"/>
+      <c r="G24" s="392"/>
+      <c r="H24" s="393"/>
     </row>
     <row r="25">
-      <c r="A25" s="450"/>
-      <c r="B25" s="451"/>
-      <c r="C25" s="452"/>
-      <c r="D25" s="453"/>
-      <c r="E25" s="454"/>
-      <c r="F25" s="455"/>
-      <c r="G25" s="456"/>
-      <c r="H25" s="457"/>
+      <c r="A25" s="394"/>
+      <c r="B25" s="395"/>
+      <c r="C25" s="396"/>
+      <c r="D25" s="397"/>
+      <c r="E25" s="398"/>
+      <c r="F25" s="399"/>
+      <c r="G25" s="400"/>
+      <c r="H25" s="401"/>
     </row>
     <row r="26">
-      <c r="A26" s="458"/>
-      <c r="B26" s="459"/>
-      <c r="C26" s="460"/>
-      <c r="D26" s="461"/>
-      <c r="E26" s="462"/>
-      <c r="F26" s="463"/>
-      <c r="G26" s="464"/>
-      <c r="H26" s="465"/>
+      <c r="A26" s="402"/>
+      <c r="B26" s="403"/>
+      <c r="C26" s="404"/>
+      <c r="D26" s="405"/>
+      <c r="E26" s="406"/>
+      <c r="F26" s="407"/>
+      <c r="G26" s="408"/>
+      <c r="H26" s="409"/>
     </row>
     <row r="27">
-      <c r="A27" s="466"/>
-      <c r="B27" s="467"/>
-      <c r="C27" s="468"/>
-      <c r="D27" s="469"/>
-      <c r="E27" s="470"/>
-      <c r="F27" s="471"/>
-      <c r="G27" s="472"/>
-      <c r="H27" s="473"/>
+      <c r="A27" s="410"/>
+      <c r="B27" s="411"/>
+      <c r="C27" s="412"/>
+      <c r="D27" s="413"/>
+      <c r="E27" s="414"/>
+      <c r="F27" s="415"/>
+      <c r="G27" s="416"/>
+      <c r="H27" s="417"/>
     </row>
     <row r="28">
-      <c r="A28" s="474"/>
-      <c r="B28" s="475"/>
-      <c r="C28" s="476"/>
-      <c r="D28" s="477"/>
-      <c r="E28" s="478"/>
-      <c r="F28" s="479"/>
-      <c r="G28" s="480"/>
-      <c r="H28" s="481"/>
+      <c r="A28" s="418"/>
+      <c r="B28" s="419"/>
+      <c r="C28" s="420"/>
+      <c r="D28" s="421"/>
+      <c r="E28" s="422"/>
+      <c r="F28" s="423"/>
+      <c r="G28" s="424"/>
+      <c r="H28" s="425"/>
     </row>
     <row r="29">
-      <c r="A29" s="482"/>
-      <c r="B29" s="483"/>
-      <c r="C29" s="484"/>
-      <c r="D29" s="485"/>
-      <c r="E29" s="486"/>
-      <c r="F29" s="487"/>
-      <c r="G29" s="488"/>
-      <c r="H29" s="489"/>
+      <c r="A29" s="426"/>
+      <c r="B29" s="427"/>
+      <c r="C29" s="428"/>
+      <c r="D29" s="429"/>
+      <c r="E29" s="430"/>
+      <c r="F29" s="431"/>
+      <c r="G29" s="432"/>
+      <c r="H29" s="433"/>
     </row>
     <row r="30">
-      <c r="A30" s="490"/>
-      <c r="B30" s="491"/>
-      <c r="C30" s="492"/>
-      <c r="D30" s="493"/>
-      <c r="E30" s="494"/>
-      <c r="F30" s="495"/>
-      <c r="G30" s="496"/>
-      <c r="H30" s="497"/>
+      <c r="A30" s="434"/>
+      <c r="B30" s="435"/>
+      <c r="C30" s="436"/>
+      <c r="D30" s="437"/>
+      <c r="E30" s="438"/>
+      <c r="F30" s="439"/>
+      <c r="G30" s="440"/>
+      <c r="H30" s="441"/>
     </row>
     <row r="31">
-      <c r="A31" s="498"/>
-      <c r="B31" s="499"/>
-      <c r="C31" s="500"/>
-      <c r="D31" s="501"/>
-      <c r="E31" s="502"/>
-      <c r="F31" s="503"/>
-      <c r="G31" s="504"/>
-      <c r="H31" s="505"/>
+      <c r="A31" s="442"/>
+      <c r="B31" s="443"/>
+      <c r="C31" s="444"/>
+      <c r="D31" s="445"/>
+      <c r="E31" s="446"/>
+      <c r="F31" s="447"/>
+      <c r="G31" s="448"/>
+      <c r="H31" s="449"/>
     </row>
     <row r="32">
-      <c r="A32" s="506"/>
-      <c r="B32" s="507"/>
-      <c r="C32" s="508"/>
-      <c r="D32" s="509"/>
-      <c r="E32" s="510"/>
-      <c r="F32" s="511"/>
-      <c r="G32" s="512"/>
-      <c r="H32" s="513"/>
+      <c r="A32" s="450"/>
+      <c r="B32" s="451"/>
+      <c r="C32" s="452"/>
+      <c r="D32" s="453"/>
+      <c r="E32" s="454"/>
+      <c r="F32" s="455"/>
+      <c r="G32" s="456"/>
+      <c r="H32" s="457"/>
     </row>
     <row r="33">
-      <c r="A33" s="514"/>
-      <c r="B33" s="515"/>
-      <c r="C33" s="516"/>
-      <c r="D33" s="517"/>
-      <c r="E33" s="518"/>
-      <c r="F33" s="519"/>
-      <c r="G33" s="520"/>
-      <c r="H33" s="521"/>
+      <c r="A33" s="458"/>
+      <c r="B33" s="459"/>
+      <c r="C33" s="460"/>
+      <c r="D33" s="461"/>
+      <c r="E33" s="462"/>
+      <c r="F33" s="463"/>
+      <c r="G33" s="464"/>
+      <c r="H33" s="465"/>
     </row>
     <row r="34">
-      <c r="A34" s="522"/>
-      <c r="B34" s="523"/>
-      <c r="C34" s="524"/>
-      <c r="D34" s="525"/>
-      <c r="E34" s="526"/>
-      <c r="F34" s="527"/>
-      <c r="G34" s="528"/>
-      <c r="H34" s="529"/>
+      <c r="A34" s="466"/>
+      <c r="B34" s="467"/>
+      <c r="C34" s="468"/>
+      <c r="D34" s="469"/>
+      <c r="E34" s="470"/>
+      <c r="F34" s="471"/>
+      <c r="G34" s="472"/>
+      <c r="H34" s="473"/>
     </row>
     <row r="35">
-      <c r="A35" s="530"/>
-      <c r="B35" s="531"/>
-      <c r="C35" s="532"/>
-      <c r="D35" s="533"/>
-      <c r="E35" s="534"/>
-      <c r="F35" s="535"/>
-      <c r="G35" s="536"/>
-      <c r="H35" s="537"/>
+      <c r="A35" s="474"/>
+      <c r="B35" s="475"/>
+      <c r="C35" s="476"/>
+      <c r="D35" s="477"/>
+      <c r="E35" s="478"/>
+      <c r="F35" s="479"/>
+      <c r="G35" s="480"/>
+      <c r="H35" s="481"/>
     </row>
     <row r="36">
-      <c r="A36" s="538"/>
-      <c r="B36" s="539"/>
-      <c r="C36" s="540"/>
-      <c r="D36" s="541"/>
-      <c r="E36" s="542"/>
-      <c r="F36" s="543"/>
-      <c r="G36" s="544"/>
-      <c r="H36" s="545"/>
+      <c r="A36" s="482"/>
+      <c r="B36" s="483"/>
+      <c r="C36" s="484"/>
+      <c r="D36" s="485"/>
+      <c r="E36" s="486"/>
+      <c r="F36" s="487"/>
+      <c r="G36" s="488"/>
+      <c r="H36" s="489"/>
     </row>
     <row r="37">
-      <c r="A37" s="546"/>
-      <c r="B37" s="547"/>
-      <c r="C37" s="548"/>
-      <c r="D37" s="549"/>
-      <c r="E37" s="550"/>
-      <c r="F37" s="551"/>
-      <c r="G37" s="552"/>
-      <c r="H37" s="553"/>
+      <c r="A37" s="490"/>
+      <c r="B37" s="491"/>
+      <c r="C37" s="492"/>
+      <c r="D37" s="493"/>
+      <c r="E37" s="494"/>
+      <c r="F37" s="495"/>
+      <c r="G37" s="496"/>
+      <c r="H37" s="497"/>
     </row>
     <row r="38">
-      <c r="A38" s="554"/>
-      <c r="B38" s="555"/>
-      <c r="C38" s="556"/>
-      <c r="D38" s="557"/>
-      <c r="E38" s="558"/>
-      <c r="F38" s="559"/>
-      <c r="G38" s="560"/>
-      <c r="H38" s="561"/>
+      <c r="A38" s="498"/>
+      <c r="B38" s="499"/>
+      <c r="C38" s="500"/>
+      <c r="D38" s="501"/>
+      <c r="E38" s="502"/>
+      <c r="F38" s="503"/>
+      <c r="G38" s="504"/>
+      <c r="H38" s="505"/>
     </row>
     <row r="39">
-      <c r="A39" s="562"/>
-      <c r="B39" s="563"/>
-      <c r="C39" s="564"/>
-      <c r="D39" s="565"/>
-      <c r="E39" s="566"/>
-      <c r="F39" s="567"/>
-      <c r="G39" s="568"/>
-      <c r="H39" s="569"/>
+      <c r="A39" s="506"/>
+      <c r="B39" s="507"/>
+      <c r="C39" s="508"/>
+      <c r="D39" s="509"/>
+      <c r="E39" s="510"/>
+      <c r="F39" s="511"/>
+      <c r="G39" s="512"/>
+      <c r="H39" s="513"/>
     </row>
     <row r="40">
-      <c r="A40" s="570"/>
-      <c r="B40" s="571"/>
-      <c r="C40" s="572"/>
-      <c r="D40" s="573"/>
-      <c r="E40" s="574"/>
-      <c r="F40" s="575"/>
-      <c r="G40" s="576"/>
-      <c r="H40" s="577"/>
+      <c r="A40" s="514"/>
+      <c r="B40" s="515"/>
+      <c r="C40" s="516"/>
+      <c r="D40" s="517"/>
+      <c r="E40" s="518"/>
+      <c r="F40" s="519"/>
+      <c r="G40" s="520"/>
+      <c r="H40" s="521"/>
     </row>
     <row r="41">
-      <c r="A41" s="578"/>
-      <c r="B41" s="579"/>
-      <c r="C41" s="580"/>
-      <c r="D41" s="581"/>
-      <c r="E41" s="582"/>
-      <c r="F41" s="583"/>
-      <c r="G41" s="584"/>
-      <c r="H41" s="585"/>
+      <c r="A41" s="522"/>
+      <c r="B41" s="523"/>
+      <c r="C41" s="524"/>
+      <c r="D41" s="525"/>
+      <c r="E41" s="526"/>
+      <c r="F41" s="527"/>
+      <c r="G41" s="528"/>
+      <c r="H41" s="529"/>
     </row>
     <row r="42">
-      <c r="A42" s="586"/>
-      <c r="B42" s="587"/>
-      <c r="C42" s="588"/>
-      <c r="D42" s="589"/>
-      <c r="E42" s="590"/>
-      <c r="F42" s="591"/>
-      <c r="G42" s="592"/>
-      <c r="H42" s="593"/>
+      <c r="A42" s="530"/>
+      <c r="B42" s="531"/>
+      <c r="C42" s="532"/>
+      <c r="D42" s="533"/>
+      <c r="E42" s="534"/>
+      <c r="F42" s="535"/>
+      <c r="G42" s="536"/>
+      <c r="H42" s="537"/>
     </row>
     <row r="43">
-      <c r="A43" s="594"/>
-      <c r="B43" s="595"/>
-      <c r="C43" s="596"/>
-      <c r="D43" s="597"/>
-      <c r="E43" s="598"/>
-      <c r="F43" s="599"/>
-      <c r="G43" s="600"/>
-      <c r="H43" s="601"/>
+      <c r="A43" s="538"/>
+      <c r="B43" s="539"/>
+      <c r="C43" s="540"/>
+      <c r="D43" s="541"/>
+      <c r="E43" s="542"/>
+      <c r="F43" s="543"/>
+      <c r="G43" s="544"/>
+      <c r="H43" s="545"/>
     </row>
     <row r="44">
-      <c r="A44" s="602"/>
-      <c r="B44" s="603"/>
-      <c r="C44" s="604"/>
-      <c r="D44" s="605"/>
-      <c r="E44" s="606"/>
-      <c r="F44" s="607"/>
-      <c r="G44" s="608"/>
-      <c r="H44" s="609"/>
+      <c r="A44" s="546"/>
+      <c r="B44" s="547"/>
+      <c r="C44" s="548"/>
+      <c r="D44" s="549"/>
+      <c r="E44" s="550"/>
+      <c r="F44" s="551"/>
+      <c r="G44" s="552"/>
+      <c r="H44" s="553"/>
     </row>
     <row r="45">
-      <c r="A45" s="610"/>
-      <c r="B45" s="611"/>
-      <c r="C45" s="612"/>
-      <c r="D45" s="613"/>
-      <c r="E45" s="614"/>
-      <c r="F45" s="615"/>
-      <c r="G45" s="616"/>
-      <c r="H45" s="617"/>
+      <c r="A45" s="554"/>
+      <c r="B45" s="555"/>
+      <c r="C45" s="556"/>
+      <c r="D45" s="557"/>
+      <c r="E45" s="558"/>
+      <c r="F45" s="559"/>
+      <c r="G45" s="560"/>
+      <c r="H45" s="561"/>
     </row>
     <row r="46">
-      <c r="A46" s="618"/>
-      <c r="B46" s="619"/>
-      <c r="C46" s="620"/>
-      <c r="D46" s="621"/>
-      <c r="E46" s="622"/>
-      <c r="F46" s="623"/>
-      <c r="G46" s="624"/>
-      <c r="H46" s="625"/>
+      <c r="A46" s="562"/>
+      <c r="B46" s="563"/>
+      <c r="C46" s="564"/>
+      <c r="D46" s="565"/>
+      <c r="E46" s="566"/>
+      <c r="F46" s="567"/>
+      <c r="G46" s="568"/>
+      <c r="H46" s="569"/>
     </row>
     <row r="47">
-      <c r="A47" s="626"/>
-      <c r="B47" s="627"/>
-      <c r="C47" s="628"/>
-      <c r="D47" s="629"/>
-      <c r="E47" s="630"/>
-      <c r="F47" s="631"/>
-      <c r="G47" s="632"/>
-      <c r="H47" s="633"/>
+      <c r="A47" s="570"/>
+      <c r="B47" s="571"/>
+      <c r="C47" s="572"/>
+      <c r="D47" s="573"/>
+      <c r="E47" s="574"/>
+      <c r="F47" s="575"/>
+      <c r="G47" s="576"/>
+      <c r="H47" s="577"/>
     </row>
     <row r="48">
-      <c r="A48" s="634"/>
-      <c r="B48" s="635"/>
-      <c r="C48" s="636"/>
-      <c r="D48" s="637"/>
-      <c r="E48" s="638"/>
-      <c r="F48" s="639"/>
-      <c r="G48" s="640"/>
-      <c r="H48" s="641"/>
+      <c r="A48" s="578"/>
+      <c r="B48" s="579"/>
+      <c r="C48" s="580"/>
+      <c r="D48" s="581"/>
+      <c r="E48" s="582"/>
+      <c r="F48" s="583"/>
+      <c r="G48" s="584"/>
+      <c r="H48" s="585"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="586"/>
+      <c r="B49" s="587"/>
+      <c r="C49" s="588"/>
+      <c r="D49" s="589"/>
+      <c r="E49" s="590"/>
+      <c r="F49" s="591"/>
+      <c r="G49" s="592"/>
+      <c r="H49" s="593"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="594"/>
+      <c r="B50" s="595"/>
+      <c r="C50" s="596"/>
+      <c r="D50" s="597"/>
+      <c r="E50" s="598"/>
+      <c r="F50" s="599"/>
+      <c r="G50" s="600"/>
+      <c r="H50" s="601"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="602"/>
+      <c r="B51" s="603"/>
+      <c r="C51" s="604"/>
+      <c r="D51" s="605"/>
+      <c r="E51" s="606"/>
+      <c r="F51" s="607"/>
+      <c r="G51" s="608"/>
+      <c r="H51" s="609"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="610"/>
+      <c r="B52" s="611"/>
+      <c r="C52" s="612"/>
+      <c r="D52" s="613"/>
+      <c r="E52" s="614"/>
+      <c r="F52" s="615"/>
+      <c r="G52" s="616"/>
+      <c r="H52" s="617"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="618"/>
+      <c r="B53" s="619"/>
+      <c r="C53" s="620"/>
+      <c r="D53" s="621"/>
+      <c r="E53" s="622"/>
+      <c r="F53" s="623"/>
+      <c r="G53" s="624"/>
+      <c r="H53" s="625"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="626"/>
+      <c r="B54" s="627"/>
+      <c r="C54" s="628"/>
+      <c r="D54" s="629"/>
+      <c r="E54" s="630"/>
+      <c r="F54" s="631"/>
+      <c r="G54" s="632"/>
+      <c r="H54" s="633"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="634"/>
+      <c r="B55" s="635"/>
+      <c r="C55" s="636"/>
+      <c r="D55" s="637"/>
+      <c r="E55" s="638"/>
+      <c r="F55" s="639"/>
+      <c r="G55" s="640"/>
+      <c r="H55" s="641"/>
     </row>
   </sheetData>
 </worksheet>

--- a/TC_CreateNewContact/Main.rvl.xlsx
+++ b/TC_CreateNewContact/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="139">
   <si>
     <t>Flow</t>
   </si>
@@ -410,6 +410,27 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>ClearFilter</t>
+  </si>
+  <si>
+    <t>DoSendKeys</t>
+  </si>
+  <si>
+    <t>keys</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>DoEnsureVisible</t>
+  </si>
+  <si>
+    <t>DoLClick</t>
   </si>
 </sst>
 </file>
@@ -430,7 +451,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="710">
+  <borders count="716">
     <border>
       <left/>
       <right/>
@@ -1147,11 +1168,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="710">
+  <cellXfs count="716">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -1862,6 +1889,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="707" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="708" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="709" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="710" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="711" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="712" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="713" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="714" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="715" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2139,7 +2172,7 @@
         <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -2242,60 +2275,58 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="688" t="s">
-        <v>7</v>
-      </c>
+      <c r="A21" s="710"/>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="689" t="s">
+      <c r="A22" s="688" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="690" t="s">
+      <c r="A23" s="689" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -2312,6 +2343,24 @@
     </row>
     <row r="24">
       <c r="A24" s="691"/>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="65"/>
@@ -2544,7 +2593,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="332" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D11" s="333" t="s">
         <v>22</v>
@@ -2568,7 +2617,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -2594,7 +2643,7 @@
         <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -2783,7 +2832,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
